--- a/va_facility_data_2025-02-20/Lake Havasu City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Havasu%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lake Havasu City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lake%20Havasu%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf99aec09befb4058a870b0544436d21d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R54a33d74dbc540fc9c827d86eaf8b3c2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rab50d331027f47c591edb5676a668ea3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra7bd7797933b41afa39879d619040efa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra9c00981c7c74542bfad618b19603958"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4440e63c17a4da3b71c0a4eff7c8821"/>
   </x:sheets>
 </x:workbook>
 </file>
